--- a/data/financial_statements/soci/HOLX.xlsx
+++ b/data/financial_statements/soci/HOLX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>953000000</v>
+        <v>953299900</v>
       </c>
       <c r="C2">
-        <v>1003000000</v>
+        <v>1002700000</v>
       </c>
       <c r="D2">
-        <v>1436000000</v>
+        <v>1435700000</v>
       </c>
       <c r="E2">
-        <v>1471000000</v>
+        <v>1471100000</v>
       </c>
       <c r="F2">
-        <v>1317000000</v>
+        <v>1316600000</v>
       </c>
       <c r="G2">
         <v>1168300000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.2764</v>
+        <v>-0.2759</v>
       </c>
       <c r="C3">
-        <v>-0.1415</v>
+        <v>-0.1417</v>
       </c>
       <c r="D3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0663</v>
       </c>
       <c r="E3">
         <v>-0.0862</v>
       </c>
       <c r="F3">
-        <v>-0.0222</v>
+        <v>-0.0225</v>
       </c>
       <c r="G3">
         <v>0.4197</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>442000000</v>
+        <v>438599900</v>
       </c>
       <c r="C4">
-        <v>464000000</v>
+        <v>452900000</v>
       </c>
       <c r="D4">
-        <v>500000000</v>
+        <v>489100000</v>
       </c>
       <c r="E4">
-        <v>496000000</v>
+        <v>484800000</v>
       </c>
       <c r="F4">
-        <v>500000000</v>
+        <v>488599800</v>
       </c>
       <c r="G4">
         <v>466700000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>511000000</v>
+        <v>514700000</v>
       </c>
       <c r="C5">
-        <v>539000000</v>
+        <v>549800000</v>
       </c>
       <c r="D5">
-        <v>935000000</v>
+        <v>946600000</v>
       </c>
       <c r="E5">
-        <v>976000000</v>
+        <v>986300000</v>
       </c>
       <c r="F5">
-        <v>817000000</v>
+        <v>828000100</v>
       </c>
       <c r="G5">
         <v>701600000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>76000000</v>
       </c>
       <c r="C6">
-        <v>65000000</v>
+        <v>65100000</v>
       </c>
       <c r="D6">
-        <v>70000000</v>
+        <v>69500000</v>
       </c>
       <c r="E6">
-        <v>73000000</v>
+        <v>72800000</v>
       </c>
       <c r="F6">
-        <v>77000000</v>
+        <v>76500000</v>
       </c>
       <c r="G6">
         <v>69000000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>256600000</v>
@@ -1240,7 +1351,7 @@
         <v>265300000</v>
       </c>
       <c r="F7">
-        <v>295000000</v>
+        <v>294500000</v>
       </c>
       <c r="G7">
         <v>260000000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>140900500</v>
@@ -1468,8 +1579,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>24000000</v>
@@ -1509,23 +1620,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>9000000</v>
+        <v>24100000</v>
       </c>
       <c r="C10">
-        <v>2000000</v>
+        <v>22700000</v>
       </c>
       <c r="D10">
-        <v>1000000</v>
+        <v>22600000</v>
       </c>
       <c r="E10">
-        <v>1000000</v>
+        <v>25700000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>22600000</v>
       </c>
       <c r="G10">
         <v>21600000</v>
@@ -1631,23 +1742,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>33000000</v>
+        <v>2600000</v>
       </c>
       <c r="C11">
-        <v>-35000000</v>
+        <v>-15500000</v>
       </c>
       <c r="D11">
-        <v>2000000</v>
+        <v>-19700000</v>
       </c>
       <c r="E11">
-        <v>26000000</v>
+        <v>-19400000</v>
       </c>
       <c r="F11">
-        <v>-5000000</v>
+        <v>-28700000</v>
       </c>
       <c r="G11">
         <v>-21100000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>143000000</v>
+        <v>143499900</v>
       </c>
       <c r="C12">
-        <v>248000000</v>
+        <v>248400000</v>
       </c>
       <c r="D12">
-        <v>574000000</v>
+        <v>574400000</v>
       </c>
       <c r="E12">
-        <v>622000000</v>
+        <v>621900000</v>
       </c>
       <c r="F12">
-        <v>411000000</v>
+        <v>410700100</v>
       </c>
       <c r="G12">
         <v>337500000</v>
@@ -1875,23 +1986,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>25000000</v>
+        <v>24800000</v>
       </c>
       <c r="C13">
         <v>20000000</v>
       </c>
       <c r="D13">
-        <v>119000000</v>
+        <v>118700000</v>
       </c>
       <c r="E13">
-        <v>123000000</v>
+        <v>122700000</v>
       </c>
       <c r="F13">
-        <v>82000000</v>
+        <v>81900000</v>
       </c>
       <c r="G13">
         <v>69400000</v>
@@ -1997,8 +2108,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>118700000</v>
@@ -2119,8 +2230,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2142,8 +2253,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G16">
         <v>-300000</v>
@@ -2168,23 +2279,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>119000000</v>
+        <v>118700000</v>
       </c>
       <c r="C17">
-        <v>228000000</v>
+        <v>228400000</v>
       </c>
       <c r="D17">
-        <v>456000000</v>
+        <v>455700000</v>
       </c>
       <c r="E17">
-        <v>499000000</v>
+        <v>499200000</v>
       </c>
       <c r="F17">
-        <v>329000000</v>
+        <v>328799900</v>
       </c>
       <c r="G17">
         <v>268400000</v>
@@ -2290,23 +2401,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.47</v>
       </c>
       <c r="C18">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D18">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="E18">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F18">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G18">
         <v>1.05</v>
@@ -2412,8 +2523,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.47</v>
@@ -2534,23 +2645,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>250000000</v>
+        <v>251527000</v>
       </c>
       <c r="C20">
-        <v>251000000</v>
+        <v>250756000</v>
       </c>
       <c r="D20">
-        <v>252000000</v>
+        <v>251574000</v>
       </c>
       <c r="E20">
-        <v>253000000</v>
+        <v>253499000</v>
       </c>
       <c r="F20">
-        <v>255000000</v>
+        <v>257046000</v>
       </c>
       <c r="G20">
         <v>256230000</v>
@@ -2656,23 +2767,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>253000000</v>
+        <v>253845000</v>
       </c>
       <c r="C21">
-        <v>253000000</v>
+        <v>253093000</v>
       </c>
       <c r="D21">
-        <v>254000000</v>
+        <v>253658000</v>
       </c>
       <c r="E21">
-        <v>256000000</v>
+        <v>256070000</v>
       </c>
       <c r="F21">
-        <v>258000000</v>
+        <v>259706000</v>
       </c>
       <c r="G21">
         <v>258581000</v>
@@ -2778,23 +2889,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.5362</v>
+        <v>0.5399</v>
       </c>
       <c r="C22">
-        <v>0.5374</v>
+        <v>0.5483</v>
       </c>
       <c r="D22">
-        <v>0.6511</v>
+        <v>0.6593</v>
       </c>
       <c r="E22">
-        <v>0.6635</v>
+        <v>0.6705</v>
       </c>
       <c r="F22">
-        <v>0.6203</v>
+        <v>0.6289</v>
       </c>
       <c r="G22">
         <v>0.6005</v>
@@ -2900,23 +3011,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1478</v>
       </c>
       <c r="C23">
-        <v>0.2631</v>
+        <v>0.2632</v>
       </c>
       <c r="D23">
-        <v>0.4137</v>
+        <v>0.4138</v>
       </c>
       <c r="E23">
-        <v>0.436</v>
+        <v>0.4359</v>
       </c>
       <c r="F23">
-        <v>0.3336</v>
+        <v>0.3337</v>
       </c>
       <c r="G23">
         <v>0.3069</v>
@@ -3022,23 +3133,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1501</v>
+        <v>0.1505</v>
       </c>
       <c r="C24">
-        <v>0.2473</v>
+        <v>0.2477</v>
       </c>
       <c r="D24">
-        <v>0.3997</v>
+        <v>0.4001</v>
       </c>
       <c r="E24">
-        <v>0.4228</v>
+        <v>0.4227</v>
       </c>
       <c r="F24">
-        <v>0.3121</v>
+        <v>0.3119</v>
       </c>
       <c r="G24">
         <v>0.2889</v>
@@ -3144,23 +3255,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.1249</v>
+        <v>0.1245</v>
       </c>
       <c r="C25">
-        <v>0.2273</v>
+        <v>0.2278</v>
       </c>
       <c r="D25">
-        <v>0.3175</v>
+        <v>0.3174</v>
       </c>
       <c r="E25">
-        <v>0.3392</v>
+        <v>0.3393</v>
       </c>
       <c r="F25">
-        <v>0.2498</v>
+        <v>0.2497</v>
       </c>
       <c r="G25">
         <v>0.2297</v>
@@ -3266,23 +3377,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>285000000</v>
+        <v>247500400</v>
       </c>
       <c r="C26">
-        <v>339000000</v>
+        <v>373300000</v>
       </c>
       <c r="D26">
-        <v>700000000</v>
+        <v>700200000</v>
       </c>
       <c r="E26">
-        <v>745000000</v>
+        <v>749300000</v>
       </c>
       <c r="F26">
-        <v>563000000</v>
+        <v>557199800</v>
       </c>
       <c r="G26">
         <v>459700100</v>
@@ -3388,8 +3499,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>140900300</v>
@@ -3510,8 +3621,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>118700000</v>
@@ -3632,23 +3743,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>119000000</v>
+        <v>118700000</v>
       </c>
       <c r="C29">
-        <v>228000000</v>
+        <v>228400000</v>
       </c>
       <c r="D29">
-        <v>456000000</v>
+        <v>455700000</v>
       </c>
       <c r="E29">
-        <v>499000000</v>
+        <v>499200000</v>
       </c>
       <c r="F29">
-        <v>329000000</v>
+        <v>328799900</v>
       </c>
       <c r="G29">
         <v>268100000</v>
@@ -3754,8 +3865,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.4849</v>
@@ -3876,8 +3987,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.4807</v>
@@ -3998,8 +4109,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.4849</v>
@@ -4120,8 +4231,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.4807</v>
@@ -4242,8 +4353,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>252560000</v>
@@ -4364,23 +4475,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.2991</v>
+        <v>0.2596</v>
       </c>
       <c r="C35">
-        <v>0.338</v>
+        <v>0.3723</v>
       </c>
       <c r="D35">
-        <v>0.4875</v>
+        <v>0.4877</v>
       </c>
       <c r="E35">
-        <v>0.5065</v>
+        <v>0.5093</v>
       </c>
       <c r="F35">
-        <v>0.4275</v>
+        <v>0.4232</v>
       </c>
       <c r="G35">
         <v>0.3935</v>
@@ -4486,23 +4597,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.1769</v>
       </c>
       <c r="C36">
-        <v>0.3297</v>
+        <v>0.3298</v>
       </c>
       <c r="D36">
-        <v>0.7397</v>
+        <v>0.7398</v>
       </c>
       <c r="E36">
         <v>0.3835</v>
       </c>
       <c r="F36">
-        <v>0.3534</v>
+        <v>0.3535</v>
       </c>
       <c r="G36">
         <v>0.5673</v>
